--- a/biology/Botanique/Begonia_alicida/Begonia_alicida.xlsx
+++ b/biology/Botanique/Begonia_alicida/Begonia_alicida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia alicida est une espèce de plantes de la famille des Begoniaceae. Ce bégonia arbustif est originaire du Birmanie et de Thaïlande.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un bégonia arbustif, therophyte[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bégonia arbustif, therophyte,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Birmanie, Thaïlande[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Birmanie, Thaïlande.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia alicida fait partie de la section Alicida du genre Begonia, assigné à la famille des Begoniaceae.
-L'espèce a été décrite en 1879 par le botaniste britannique Charles Baron Clarke (1832-1906). Elle avait été d'abord nommée de façon erronée B. alaecida en 1879 par J. D. Hooker[5].
+L'espèce a été décrite en 1879 par le botaniste britannique Charles Baron Clarke (1832-1906). Elle avait été d'abord nommée de façon erronée B. alaecida en 1879 par J. D. Hooker.
 </t>
         </is>
       </c>
